--- a/Plotting Dataframe for Testing - 1.xlsx
+++ b/Plotting Dataframe for Testing - 1.xlsx
@@ -38723,877 +38723,877 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU33" t="n">
         <v>0</v>
@@ -39918,877 +39918,877 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU34" t="n">
         <v>0</v>
@@ -41113,877 +41113,877 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU35" t="n">
         <v>0</v>
@@ -43268,97 +43268,97 @@
         <v>0</v>
       </c>
       <c r="LX36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LZ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MB36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MG36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MH36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MK36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ML36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MS36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MT36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MU36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NC36" t="n">
         <v>0</v>
@@ -44463,97 +44463,97 @@
         <v>0</v>
       </c>
       <c r="LX37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LZ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MK37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ML37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MS37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MT37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MU37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NC37" t="n">
         <v>0</v>
@@ -45658,97 +45658,97 @@
         <v>0</v>
       </c>
       <c r="LX38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LZ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MB38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MG38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ML38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MS38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MT38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MU38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NC38" t="n">
         <v>0</v>
